--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2_dm_test_hln_resultados.xlsx
@@ -125,22 +125,22 @@
     <t>1.5723</t>
   </si>
   <si>
-    <t>1.5531</t>
-  </si>
-  <si>
-    <t>1.5781</t>
+    <t>1.5627</t>
+  </si>
+  <si>
+    <t>1.5887</t>
   </si>
   <si>
     <t>1.8360</t>
   </si>
   <si>
-    <t>2.6752</t>
+    <t>2.4549</t>
   </si>
   <si>
     <t>3.8803</t>
   </si>
   <si>
-    <t>4.2754</t>
+    <t>4.2755</t>
   </si>
   <si>
     <t>0.3071</t>
@@ -152,22 +152,22 @@
     <t>2.5266</t>
   </si>
   <si>
-    <t>3.5027</t>
-  </si>
-  <si>
-    <t>3.3143</t>
+    <t>3.5113</t>
+  </si>
+  <si>
+    <t>3.3264</t>
   </si>
   <si>
     <t>7.4159</t>
   </si>
   <si>
-    <t>5.0846</t>
+    <t>5.4040</t>
   </si>
   <si>
     <t>11.4195</t>
   </si>
   <si>
-    <t>12.2658</t>
+    <t>12.2657</t>
   </si>
   <si>
     <t>0.5383</t>
@@ -179,22 +179,22 @@
     <t>1.6069</t>
   </si>
   <si>
-    <t>2.2552</t>
-  </si>
-  <si>
-    <t>2.1002</t>
+    <t>2.2469</t>
+  </si>
+  <si>
+    <t>2.0937</t>
   </si>
   <si>
     <t>4.0391</t>
   </si>
   <si>
-    <t>1.9007</t>
+    <t>2.2013</t>
   </si>
   <si>
     <t>2.9430</t>
   </si>
   <si>
-    <t>2.8690</t>
+    <t>2.8688</t>
   </si>
 </sst>
 </file>
@@ -1016,22 +1016,22 @@
         <v>0.0001485197194088794</v>
       </c>
       <c r="E2">
-        <v>0.005587084865045222</v>
+        <v>0.005305285977035057</v>
       </c>
       <c r="F2">
-        <v>0.004347134334083291</v>
+        <v>0.004131548874835911</v>
       </c>
       <c r="G2">
         <v>0.05111695843634334</v>
       </c>
       <c r="H2">
-        <v>0.002460412456723349</v>
+        <v>0.00412467555736673</v>
       </c>
       <c r="I2">
         <v>0.005424700392069992</v>
       </c>
       <c r="J2">
-        <v>0.005645949160917763</v>
+        <v>0.005647142000966943</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1048,22 +1048,22 @@
         <v>0.0008815506313193389</v>
       </c>
       <c r="E3">
-        <v>0.02528862379552677</v>
+        <v>0.02393143720546975</v>
       </c>
       <c r="F3">
-        <v>0.01981719390002867</v>
+        <v>0.01871609137959562</v>
       </c>
       <c r="G3">
         <v>0.1080827303257397</v>
       </c>
       <c r="H3">
-        <v>0.005060554731938671</v>
+        <v>0.008875912317723778</v>
       </c>
       <c r="I3">
         <v>0.008330163298001292</v>
       </c>
       <c r="J3">
-        <v>0.008232448790996605</v>
+        <v>0.008233965610212612</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1080,22 +1080,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.897176224370881</v>
+        <v>0.9485800820697468</v>
       </c>
       <c r="F4">
-        <v>0.9682131816500446</v>
+        <v>0.9103669270129748</v>
       </c>
       <c r="G4">
         <v>0.5622409068359855</v>
       </c>
       <c r="H4">
-        <v>0.01494346433523552</v>
+        <v>0.03306027981392456</v>
       </c>
       <c r="I4">
         <v>0.01494345131337149</v>
       </c>
       <c r="J4">
-        <v>0.01346850200085958</v>
+        <v>0.01347114938333038</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1103,31 +1103,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.005587084865045222</v>
+        <v>0.005305285977035057</v>
       </c>
       <c r="C5">
-        <v>0.02528862379552677</v>
+        <v>0.02393143720546975</v>
       </c>
       <c r="D5">
-        <v>0.897176224370881</v>
+        <v>0.9485800820697468</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.503867588087487</v>
+        <v>0.4863314953090097</v>
       </c>
       <c r="G5">
-        <v>0.3692817440093137</v>
+        <v>0.3840565803825529</v>
       </c>
       <c r="H5">
-        <v>0.002415191846345532</v>
+        <v>0.006038550104455975</v>
       </c>
       <c r="I5">
-        <v>0.005506770535511407</v>
+        <v>0.005629114665586243</v>
       </c>
       <c r="J5">
-        <v>0.005792906556849386</v>
+        <v>0.005904426321486245</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1135,31 +1135,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.004347134334083291</v>
+        <v>0.004131548874835911</v>
       </c>
       <c r="C6">
-        <v>0.01981719390002867</v>
+        <v>0.01871609137959562</v>
       </c>
       <c r="D6">
-        <v>0.9682131816500446</v>
+        <v>0.9103669270129748</v>
       </c>
       <c r="E6">
-        <v>0.503867588087487</v>
+        <v>0.4863314953090097</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4313851711019527</v>
+        <v>0.4488142296517927</v>
       </c>
       <c r="H6">
-        <v>0.003201489770865651</v>
+        <v>0.007730055059711249</v>
       </c>
       <c r="I6">
-        <v>0.006208101157928914</v>
+        <v>0.006341787075952121</v>
       </c>
       <c r="J6">
-        <v>0.006405255247826203</v>
+        <v>0.006524913545280064</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1176,22 +1176,22 @@
         <v>0.5622409068359855</v>
       </c>
       <c r="E7">
-        <v>0.3692817440093137</v>
+        <v>0.3840565803825529</v>
       </c>
       <c r="F7">
-        <v>0.4313851711019527</v>
+        <v>0.4488142296517927</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.006579963073667372</v>
+        <v>0.02546020839792718</v>
       </c>
       <c r="I7">
         <v>0.0005354153139132123</v>
       </c>
       <c r="J7">
-        <v>0.0009661522681674306</v>
+        <v>0.0009665947134080977</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1199,31 +1199,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>0.002460412456723349</v>
+        <v>0.00412467555736673</v>
       </c>
       <c r="C8">
-        <v>0.005060554731938671</v>
+        <v>0.008875912317723778</v>
       </c>
       <c r="D8">
-        <v>0.01494346433523552</v>
+        <v>0.03306027981392456</v>
       </c>
       <c r="E8">
-        <v>0.002415191846345532</v>
+        <v>0.006038550104455975</v>
       </c>
       <c r="F8">
-        <v>0.003201489770865651</v>
+        <v>0.007730055059711249</v>
       </c>
       <c r="G8">
-        <v>0.006579963073667372</v>
+        <v>0.02546020839792718</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.03583112500827124</v>
+        <v>0.01493134748401359</v>
       </c>
       <c r="J8">
-        <v>0.0215161346303161</v>
+        <v>0.01086650606326289</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1240,22 +1240,22 @@
         <v>0.01494345131337149</v>
       </c>
       <c r="E9">
-        <v>0.005506770535511407</v>
+        <v>0.005629114665586243</v>
       </c>
       <c r="F9">
-        <v>0.006208101157928914</v>
+        <v>0.006341787075952121</v>
       </c>
       <c r="G9">
         <v>0.0005354153139132123</v>
       </c>
       <c r="H9">
-        <v>0.03583112500827124</v>
+        <v>0.01493134748401359</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.01374564150558655</v>
+        <v>0.01376997561758664</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1263,28 +1263,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.005645949160917763</v>
+        <v>0.005647142000966943</v>
       </c>
       <c r="C10">
-        <v>0.008232448790996605</v>
+        <v>0.008233965610212612</v>
       </c>
       <c r="D10">
-        <v>0.01346850200085958</v>
+        <v>0.01347114938333038</v>
       </c>
       <c r="E10">
-        <v>0.005792906556849386</v>
+        <v>0.005904426321486245</v>
       </c>
       <c r="F10">
-        <v>0.006405255247826203</v>
+        <v>0.006524913545280064</v>
       </c>
       <c r="G10">
-        <v>0.0009661522681674306</v>
+        <v>0.0009665947134080977</v>
       </c>
       <c r="H10">
-        <v>0.0215161346303161</v>
+        <v>0.01086650606326289</v>
       </c>
       <c r="I10">
-        <v>0.01374564150558655</v>
+        <v>0.01376997561758664</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1346,22 +1346,22 @@
         <v>-4.269694884873911</v>
       </c>
       <c r="E2">
-        <v>-2.95891334144144</v>
+        <v>-2.979011395689851</v>
       </c>
       <c r="F2">
-        <v>-3.055820739247167</v>
+        <v>-3.075301860208742</v>
       </c>
       <c r="G2">
         <v>-2.021860288360768</v>
       </c>
       <c r="H2">
-        <v>-3.271010388037666</v>
+        <v>-3.075938670891716</v>
       </c>
       <c r="I2">
         <v>-2.970374700405864</v>
       </c>
       <c r="J2">
-        <v>-2.954835984028798</v>
+        <v>-2.954753774119182</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1378,22 +1378,22 @@
         <v>-3.646022243754777</v>
       </c>
       <c r="E3">
-        <v>-2.340058547582389</v>
+        <v>-2.364024560027169</v>
       </c>
       <c r="F3">
-        <v>-2.445062309028546</v>
+        <v>-2.469350628913434</v>
       </c>
       <c r="G3">
         <v>-1.65033987872114</v>
       </c>
       <c r="H3">
-        <v>-2.997299969128151</v>
+        <v>-2.776326266125144</v>
       </c>
       <c r="I3">
         <v>-2.801676823439771</v>
       </c>
       <c r="J3">
-        <v>-2.806378818977409</v>
+        <v>-2.806305432527586</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1410,22 +1410,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.130199048550437</v>
+        <v>0.06496786511420824</v>
       </c>
       <c r="F4">
-        <v>-0.04014393521437633</v>
+        <v>-0.1134171223842102</v>
       </c>
       <c r="G4">
         <v>-0.5852548214670092</v>
       </c>
       <c r="H4">
-        <v>-2.563855832887323</v>
+        <v>-2.221754490375471</v>
       </c>
       <c r="I4">
         <v>-2.563856195348538</v>
       </c>
       <c r="J4">
-        <v>-2.606904073037229</v>
+        <v>-2.606822986779918</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1433,31 +1433,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.95891334144144</v>
+        <v>2.979011395689851</v>
       </c>
       <c r="C5">
-        <v>2.340058547582389</v>
+        <v>2.364024560027169</v>
       </c>
       <c r="D5">
-        <v>-0.130199048550437</v>
+        <v>-0.06496786511420824</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6755944416386476</v>
+        <v>-0.7038296828992813</v>
       </c>
       <c r="G5">
-        <v>-0.9098982642648559</v>
+        <v>-0.8818376846265282</v>
       </c>
       <c r="H5">
-        <v>-3.277926283898544</v>
+        <v>-2.928623257780381</v>
       </c>
       <c r="I5">
-        <v>-2.964542248159945</v>
+        <v>-2.955997956507879</v>
       </c>
       <c r="J5">
-        <v>-2.944828836529285</v>
+        <v>-2.937393079054316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1465,31 +1465,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>3.055820739247167</v>
+        <v>3.075301860208742</v>
       </c>
       <c r="C6">
-        <v>2.445062309028546</v>
+        <v>2.469350628913434</v>
       </c>
       <c r="D6">
-        <v>0.04014393521437633</v>
+        <v>0.1134171223842102</v>
       </c>
       <c r="E6">
-        <v>0.6755944416386476</v>
+        <v>0.7038296828992813</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.7962960027605428</v>
+        <v>-0.7662515165628037</v>
       </c>
       <c r="H6">
-        <v>-3.172214278810127</v>
+        <v>-2.831409553940748</v>
       </c>
       <c r="I6">
-        <v>-2.917795522331794</v>
+        <v>-2.90945244358324</v>
       </c>
       <c r="J6">
-        <v>-2.905549219263216</v>
+        <v>-2.898288175503464</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1506,22 +1506,22 @@
         <v>0.5852548214670092</v>
       </c>
       <c r="E7">
-        <v>0.9098982642648559</v>
+        <v>0.8818376846265282</v>
       </c>
       <c r="F7">
-        <v>0.7962960027605428</v>
+        <v>0.7662515165628037</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-2.894989597179979</v>
+        <v>-2.337111901495963</v>
       </c>
       <c r="I7">
         <v>-3.823486950221935</v>
       </c>
       <c r="J7">
-        <v>-3.613108956268353</v>
+        <v>-3.612944267251107</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1529,31 +1529,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>3.271010388037666</v>
+        <v>3.075938670891716</v>
       </c>
       <c r="C8">
-        <v>2.997299969128151</v>
+        <v>2.776326266125144</v>
       </c>
       <c r="D8">
-        <v>2.563855832887323</v>
+        <v>2.221754490375471</v>
       </c>
       <c r="E8">
-        <v>3.277926283898544</v>
+        <v>2.928623257780381</v>
       </c>
       <c r="F8">
-        <v>3.172214278810127</v>
+        <v>2.831409553940748</v>
       </c>
       <c r="G8">
-        <v>2.894989597179979</v>
+        <v>2.337111901495963</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-2.185575971989126</v>
+        <v>-2.564193228957207</v>
       </c>
       <c r="J8">
-        <v>-2.409898962557433</v>
+        <v>-2.694754620437258</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1570,22 +1570,22 @@
         <v>2.563856195348538</v>
       </c>
       <c r="E9">
-        <v>2.964542248159945</v>
+        <v>2.955997956507879</v>
       </c>
       <c r="F9">
-        <v>2.917795522331794</v>
+        <v>2.90945244358324</v>
       </c>
       <c r="G9">
         <v>3.823486950221935</v>
       </c>
       <c r="H9">
-        <v>2.185575971989126</v>
+        <v>2.564193228957207</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-2.598494369449817</v>
+        <v>-2.597763446613827</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1593,28 +1593,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>2.954835984028798</v>
+        <v>2.954753774119182</v>
       </c>
       <c r="C10">
-        <v>2.806378818977409</v>
+        <v>2.806305432527586</v>
       </c>
       <c r="D10">
-        <v>2.606904073037229</v>
+        <v>2.606822986779918</v>
       </c>
       <c r="E10">
-        <v>2.944828836529285</v>
+        <v>2.937393079054316</v>
       </c>
       <c r="F10">
-        <v>2.905549219263216</v>
+        <v>2.898288175503464</v>
       </c>
       <c r="G10">
-        <v>3.613108956268353</v>
+        <v>3.612944267251107</v>
       </c>
       <c r="H10">
-        <v>2.409898962557433</v>
+        <v>2.694754620437258</v>
       </c>
       <c r="I10">
-        <v>2.598494369449817</v>
+        <v>2.597763446613827</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>Parámetro</t>
   </si>
@@ -59,12 +59,12 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>MCPS</t>
   </si>
   <si>
@@ -110,21 +110,18 @@
     <t>25.0%</t>
   </si>
   <si>
-    <t>12.5%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>0.5705</t>
   </si>
   <si>
+    <t>0.8362</t>
+  </si>
+  <si>
     <t>0.8455</t>
   </si>
   <si>
-    <t>1.5723</t>
-  </si>
-  <si>
     <t>1.5627</t>
   </si>
   <si>
@@ -146,12 +143,12 @@
     <t>0.3071</t>
   </si>
   <si>
+    <t>0.6845</t>
+  </si>
+  <si>
     <t>0.7015</t>
   </si>
   <si>
-    <t>2.5266</t>
-  </si>
-  <si>
     <t>3.5113</t>
   </si>
   <si>
@@ -173,10 +170,10 @@
     <t>0.5383</t>
   </si>
   <si>
+    <t>0.8186</t>
+  </si>
+  <si>
     <t>0.8297</t>
-  </si>
-  <si>
-    <t>1.6069</t>
   </si>
   <si>
     <t>2.2469</t>
@@ -715,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -744,7 +741,7 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1010,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>7.620427444621214E-08</v>
+      </c>
+      <c r="D2">
         <v>7.637692323037015E-08</v>
-      </c>
-      <c r="D2">
-        <v>0.0001485197194088794</v>
       </c>
       <c r="E2">
         <v>0.005305285977035057</v>
@@ -1039,31 +1036,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7.637692323037015E-08</v>
+        <v>7.620427444621214E-08</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0008815506313193389</v>
+        <v>0.1674540400586997</v>
       </c>
       <c r="E3">
-        <v>0.02393143720546975</v>
+        <v>0.02238178758511578</v>
       </c>
       <c r="F3">
-        <v>0.01871609137959562</v>
+        <v>0.01743993615042294</v>
       </c>
       <c r="G3">
-        <v>0.1080827303257397</v>
+        <v>0.1051148974766396</v>
       </c>
       <c r="H3">
-        <v>0.008875912317723778</v>
+        <v>0.008548870124466923</v>
       </c>
       <c r="I3">
-        <v>0.008330163298001292</v>
+        <v>0.008166489730020876</v>
       </c>
       <c r="J3">
-        <v>0.008233965610212612</v>
+        <v>0.008090275648662271</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1071,31 +1068,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.0001485197194088794</v>
+        <v>7.637692323037015E-08</v>
       </c>
       <c r="C4">
-        <v>0.0008815506313193389</v>
+        <v>0.1674540400586997</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9485800820697468</v>
+        <v>0.02393143720546975</v>
       </c>
       <c r="F4">
-        <v>0.9103669270129748</v>
+        <v>0.01871609137959562</v>
       </c>
       <c r="G4">
-        <v>0.5622409068359855</v>
+        <v>0.1080827303257397</v>
       </c>
       <c r="H4">
-        <v>0.03306027981392456</v>
+        <v>0.008875912317723778</v>
       </c>
       <c r="I4">
-        <v>0.01494345131337149</v>
+        <v>0.008330163298001292</v>
       </c>
       <c r="J4">
-        <v>0.01347114938333038</v>
+        <v>0.008233965610212612</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1106,10 +1103,10 @@
         <v>0.005305285977035057</v>
       </c>
       <c r="C5">
+        <v>0.02238178758511578</v>
+      </c>
+      <c r="D5">
         <v>0.02393143720546975</v>
-      </c>
-      <c r="D5">
-        <v>0.9485800820697468</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1138,10 +1135,10 @@
         <v>0.004131548874835911</v>
       </c>
       <c r="C6">
+        <v>0.01743993615042294</v>
+      </c>
+      <c r="D6">
         <v>0.01871609137959562</v>
-      </c>
-      <c r="D6">
-        <v>0.9103669270129748</v>
       </c>
       <c r="E6">
         <v>0.4863314953090097</v>
@@ -1170,10 +1167,10 @@
         <v>0.05111695843634334</v>
       </c>
       <c r="C7">
+        <v>0.1051148974766396</v>
+      </c>
+      <c r="D7">
         <v>0.1080827303257397</v>
-      </c>
-      <c r="D7">
-        <v>0.5622409068359855</v>
       </c>
       <c r="E7">
         <v>0.3840565803825529</v>
@@ -1202,10 +1199,10 @@
         <v>0.00412467555736673</v>
       </c>
       <c r="C8">
+        <v>0.008548870124466923</v>
+      </c>
+      <c r="D8">
         <v>0.008875912317723778</v>
-      </c>
-      <c r="D8">
-        <v>0.03306027981392456</v>
       </c>
       <c r="E8">
         <v>0.006038550104455975</v>
@@ -1234,10 +1231,10 @@
         <v>0.005424700392069992</v>
       </c>
       <c r="C9">
+        <v>0.008166489730020876</v>
+      </c>
+      <c r="D9">
         <v>0.008330163298001292</v>
-      </c>
-      <c r="D9">
-        <v>0.01494345131337149</v>
       </c>
       <c r="E9">
         <v>0.005629114665586243</v>
@@ -1266,10 +1263,10 @@
         <v>0.005647142000966943</v>
       </c>
       <c r="C10">
+        <v>0.008090275648662271</v>
+      </c>
+      <c r="D10">
         <v>0.008233965610212612</v>
-      </c>
-      <c r="D10">
-        <v>0.01347114938333038</v>
       </c>
       <c r="E10">
         <v>0.005904426321486245</v>
@@ -1340,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>-6.817818191409489</v>
+      </c>
+      <c r="D2">
         <v>-6.817047592620416</v>
-      </c>
-      <c r="D2">
-        <v>-4.269694884873911</v>
       </c>
       <c r="E2">
         <v>-2.979011395689851</v>
@@ -1369,31 +1366,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.817047592620416</v>
+        <v>6.817818191409489</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.646022243754777</v>
+        <v>-1.410575500942601</v>
       </c>
       <c r="E3">
-        <v>-2.364024560027169</v>
+        <v>-2.392943430196895</v>
       </c>
       <c r="F3">
-        <v>-2.469350628913434</v>
+        <v>-2.499190314855062</v>
       </c>
       <c r="G3">
-        <v>-1.65033987872114</v>
+        <v>-1.664939680568258</v>
       </c>
       <c r="H3">
-        <v>-2.776326266125144</v>
+        <v>-2.791336674250943</v>
       </c>
       <c r="I3">
-        <v>-2.801676823439771</v>
+        <v>-2.809582320456876</v>
       </c>
       <c r="J3">
-        <v>-2.806305432527586</v>
+        <v>-2.813314137882683</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1401,31 +1398,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.269694884873911</v>
+        <v>6.817047592620416</v>
       </c>
       <c r="C4">
-        <v>3.646022243754777</v>
+        <v>1.410575500942601</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06496786511420824</v>
+        <v>-2.364024560027169</v>
       </c>
       <c r="F4">
-        <v>-0.1134171223842102</v>
+        <v>-2.469350628913434</v>
       </c>
       <c r="G4">
-        <v>-0.5852548214670092</v>
+        <v>-1.65033987872114</v>
       </c>
       <c r="H4">
-        <v>-2.221754490375471</v>
+        <v>-2.776326266125144</v>
       </c>
       <c r="I4">
-        <v>-2.563856195348538</v>
+        <v>-2.801676823439771</v>
       </c>
       <c r="J4">
-        <v>-2.606822986779918</v>
+        <v>-2.806305432527586</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1436,10 +1433,10 @@
         <v>2.979011395689851</v>
       </c>
       <c r="C5">
+        <v>2.392943430196895</v>
+      </c>
+      <c r="D5">
         <v>2.364024560027169</v>
-      </c>
-      <c r="D5">
-        <v>-0.06496786511420824</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1468,10 +1465,10 @@
         <v>3.075301860208742</v>
       </c>
       <c r="C6">
+        <v>2.499190314855062</v>
+      </c>
+      <c r="D6">
         <v>2.469350628913434</v>
-      </c>
-      <c r="D6">
-        <v>0.1134171223842102</v>
       </c>
       <c r="E6">
         <v>0.7038296828992813</v>
@@ -1500,10 +1497,10 @@
         <v>2.021860288360768</v>
       </c>
       <c r="C7">
+        <v>1.664939680568258</v>
+      </c>
+      <c r="D7">
         <v>1.65033987872114</v>
-      </c>
-      <c r="D7">
-        <v>0.5852548214670092</v>
       </c>
       <c r="E7">
         <v>0.8818376846265282</v>
@@ -1532,10 +1529,10 @@
         <v>3.075938670891716</v>
       </c>
       <c r="C8">
+        <v>2.791336674250943</v>
+      </c>
+      <c r="D8">
         <v>2.776326266125144</v>
-      </c>
-      <c r="D8">
-        <v>2.221754490375471</v>
       </c>
       <c r="E8">
         <v>2.928623257780381</v>
@@ -1564,10 +1561,10 @@
         <v>2.970374700405864</v>
       </c>
       <c r="C9">
+        <v>2.809582320456876</v>
+      </c>
+      <c r="D9">
         <v>2.801676823439771</v>
-      </c>
-      <c r="D9">
-        <v>2.563856195348538</v>
       </c>
       <c r="E9">
         <v>2.955997956507879</v>
@@ -1596,10 +1593,10 @@
         <v>2.954753774119182</v>
       </c>
       <c r="C10">
+        <v>2.813314137882683</v>
+      </c>
+      <c r="D10">
         <v>2.806305432527586</v>
-      </c>
-      <c r="D10">
-        <v>2.606822986779918</v>
       </c>
       <c r="E10">
         <v>2.937393079054316</v>
@@ -1676,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1690,25 +1687,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1719,22 +1716,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1751,16 +1748,16 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1777,16 +1774,16 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1806,13 +1803,13 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1829,16 +1826,16 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1855,16 +1852,16 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1881,16 +1878,16 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
